--- a/xxetest/Java XXE Test Case Results.xlsx
+++ b/xxetest/Java XXE Test Case Results.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwichers/git/security-unit-tests/xxetest/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540"/>
+    <workbookView xWindow="780" yWindow="465" windowWidth="24825" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Java XXE Unit Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Fortify Results" sheetId="2" r:id="rId2"/>
     <sheet name="Contrast Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="107">
   <si>
     <t>Filename</t>
   </si>
@@ -171,22 +163,6 @@
   </si>
   <si>
     <r>
-      <t>javax.xml.parsers.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DocumentBuilder</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>javax.xml.bind.</t>
     </r>
     <r>
@@ -437,22 +413,36 @@
   <si>
     <t>XXE Tests</t>
   </si>
+  <si>
+    <t>Fortify Detection</t>
+  </si>
+  <si>
+    <t>Contrast Detection</t>
+  </si>
+  <si>
+    <t>javax.xml.parsers.DocumentBuilder</t>
+  </si>
+  <si>
+    <t>Unsafe (Safe in 1.8)</t>
+  </si>
+  <si>
+    <t>Fail (Pass in 1.8)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -466,15 +456,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,13 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -521,32 +510,452 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Total" xfId="2" builtinId="25"/>
+    <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -631,7 +1040,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.404761904761905</c:v>
+                  <c:v>0.40476190476190471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,7 +1052,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.857142857142857</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,10 +1088,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -691,10 +1100,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
@@ -708,15 +1117,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1099509168"/>
-        <c:axId val="1099512560"/>
+        <c:axId val="43966464"/>
+        <c:axId val="43967040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1099509168"/>
+        <c:axId val="43966464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -749,17 +1158,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1099512560"/>
+        <c:crossAx val="43967040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1099512560"/>
+        <c:axId val="43967040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -787,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1099509168"/>
+        <c:crossAx val="43966464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -843,7 +1252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +1264,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.857142857142857</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,10 +1300,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -903,10 +1312,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
@@ -920,15 +1329,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1099538080"/>
-        <c:axId val="1099541472"/>
+        <c:axId val="43968768"/>
+        <c:axId val="43969344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1099538080"/>
+        <c:axId val="43968768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -961,17 +1370,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1099541472"/>
+        <c:crossAx val="43969344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1099541472"/>
+        <c:axId val="43969344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -999,7 +1408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1099538080"/>
+        <c:crossAx val="43968768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1055,7 +1464,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1476,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,10 +1512,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -1115,10 +1524,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
@@ -1132,15 +1541,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1014699136"/>
-        <c:axId val="1014126320"/>
+        <c:axId val="43971648"/>
+        <c:axId val="43972224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1014699136"/>
+        <c:axId val="43971648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1173,17 +1582,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1014126320"/>
+        <c:crossAx val="43972224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1014126320"/>
+        <c:axId val="43972224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="0.0"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1211,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1014699136"/>
+        <c:crossAx val="43971648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1334,14 +1743,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F40">
-  <autoFilter ref="A1:F40"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H40">
+  <autoFilter ref="A1:H40"/>
+  <tableColumns count="8">
     <tableColumn id="8" name="XXE Tests"/>
     <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
     <tableColumn id="1" name="Filename"/>
     <tableColumn id="6" name="Method"/>
     <tableColumn id="5" name="Testing if…"/>
+    <tableColumn id="4" name="Fortify Detection"/>
+    <tableColumn id="7" name="Contrast Detection"/>
     <tableColumn id="2" name="Test Description" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1357,10 +1768,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="11"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="10"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="9"/>
-    <tableColumn id="9" name="Score" dataDxfId="8"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="53"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="52"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="51"/>
+    <tableColumn id="9" name="Score" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1375,10 +1786,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="7"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="6"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="5"/>
-    <tableColumn id="9" name="Score" dataDxfId="4"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="49"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="48"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="47"/>
+    <tableColumn id="9" name="Score" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1393,10 +1804,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="3"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="2"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="1"/>
-    <tableColumn id="9" name="Score" dataDxfId="0"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="45"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="44"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="43"/>
+    <tableColumn id="9" name="Score" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1689,26 +2100,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="141.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="141.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>100</v>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -1719,16 +2131,22 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1743,12 +2161,18 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1763,12 +2187,18 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1783,10 +2213,16 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1803,30 +2239,42 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1843,10 +2291,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1863,10 +2317,16 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1883,10 +2343,16 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1903,10 +2369,16 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1923,15 +2395,21 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1940,18 +2418,24 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1963,15 +2447,21 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1983,15 +2473,21 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2003,15 +2499,21 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -2023,15 +2525,21 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -2043,15 +2551,21 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2063,15 +2577,21 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2083,15 +2603,21 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2103,15 +2629,21 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2123,15 +2655,21 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2143,15 +2681,21 @@
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2163,35 +2707,47 @@
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2203,15 +2759,21 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2223,15 +2785,21 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2243,15 +2811,21 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -2263,15 +2837,21 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -2283,15 +2863,21 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -2303,15 +2889,21 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2323,15 +2915,21 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
@@ -2343,15 +2941,21 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -2363,15 +2967,21 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -2383,15 +2993,21 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
@@ -2403,15 +3019,21 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2423,15 +3045,21 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2443,15 +3071,21 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -2463,15 +3097,21 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2483,15 +3123,21 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2503,10 +3149,32 @@
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>106</v>
+      </c>
+      <c r="G40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Safe">
+      <formula>NOT(ISERROR(SEARCH("Safe",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Unsafe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2523,26 +3191,26 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2558,28 +3226,28 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2589,7 +3257,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3">
         <v>1</v>
       </c>
@@ -2600,27 +3268,27 @@
         <f t="shared" ref="F3:F9" si="0">SUM(B3:E3)</f>
         <v>7</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>0.5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4">
         <v>1</v>
       </c>
@@ -2631,27 +3299,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5">
         <v>2</v>
       </c>
@@ -2659,22 +3327,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2686,27 +3354,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="E7">
         <v>2</v>
       </c>
@@ -2714,27 +3382,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8">
         <v>2</v>
       </c>
@@ -2745,27 +3413,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9">
         <v>2</v>
       </c>
@@ -2773,60 +3441,60 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="7">
         <f t="shared" ref="B10" si="1">SUM(B3:B9)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f t="shared" ref="C10" si="2">SUM(C3:C9)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" ref="D10" si="3">SUM(D3:D9)</f>
         <v>10</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" ref="E10" si="4">SUM(E3:E9)</f>
         <v>5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>SUM(F3:F9)</f>
         <v>34</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>AVERAGE(G3:G9)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" ref="H10" si="5">AVERAGE(H3:H9)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>ROUND(AVERAGE(I3:I9)*100, 0)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="15.95" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2837,36 +3505,36 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>93</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>94</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>95</v>
       </c>
-      <c r="I29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2883,22 +3551,22 @@
         <f t="shared" ref="F30:F36" si="6">SUM(B30:E30)</f>
         <v>7</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2910,22 +3578,22 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2940,22 +3608,22 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0.5</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2967,22 +3635,22 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2997,22 +3665,22 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0.5</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -3027,22 +3695,22 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -3057,57 +3725,57 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0.5</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="8">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="7">
         <f t="shared" ref="B37:E37" si="7">SUM(B30:B36)</f>
         <v>17</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <f>SUM(C30:C36)</f>
         <v>1</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <f>SUM(D30:D36)</f>
         <v>9</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <f>SUM(F30:F36)</f>
         <v>34</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <f>AVERAGE(G30:G36)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <f t="shared" ref="H37" si="8">AVERAGE(H30:H36)</f>
         <v>0.40476190476190471</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <f>ROUND(AVERAGE(I30:I36) * 100, 0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A28:I28"/>
@@ -3130,22 +3798,22 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3161,35 +3829,35 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3">
@@ -3199,24 +3867,24 @@
         <f t="shared" ref="F3:F9" si="0">SUM(B3:E3)</f>
         <v>7</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4">
@@ -3229,24 +3897,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3">
         <v>5</v>
       </c>
       <c r="D5">
@@ -3256,22 +3924,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -3283,24 +3951,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="4">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7">
@@ -3310,24 +3978,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8">
@@ -3337,24 +4005,24 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9">
@@ -3364,57 +4032,57 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="7">
         <f t="shared" ref="B10:E10" si="1">SUM(B3:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>SUM(F3:F9)</f>
         <v>34</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>AVERAGE(G3:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" ref="H10" si="2">AVERAGE(H3:H9)</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>ROUND(AVERAGE(I3:I9)*100, 0)</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="15.95" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/xxetest/Java XXE Test Case Results.xlsx
+++ b/xxetest/Java XXE Test Case Results.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="780" yWindow="465" windowWidth="24825" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Java XXE Unit Tests" sheetId="1" r:id="rId1"/>
-    <sheet name="Fortify Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Contrast Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Command Line Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Web Tests" sheetId="4" r:id="rId2"/>
+    <sheet name="Fortify Results" sheetId="2" r:id="rId3"/>
+    <sheet name="Contrast Results" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="186">
   <si>
     <t>Filename</t>
   </si>
@@ -256,9 +257,6 @@
     <t>Proves that enabling validation for the DocumentBuilderFactory leaves the DocumentBuilder unsafe</t>
   </si>
   <si>
-    <t>Proves that XML deserialized using a JAXB Unmarshaller is unsafe when unmarshalled directly from File (Safe in 1.8)</t>
-  </si>
-  <si>
     <t>Proves that XML deserialized using a JAXB Unmarshaller is unsafe when unmarshalled through an XMLStreamReader from an unsafe XMLInputFactory</t>
   </si>
   <si>
@@ -289,28 +287,13 @@
     <t>Proves that SchemaFactory is unsafe by default</t>
   </si>
   <si>
-    <t>Proves that setting SchemaFactory's ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_SCHEMA properties makes the Validator safe</t>
-  </si>
-  <si>
     <t>Proves that TransformerFactory is unsafe by default</t>
   </si>
   <si>
     <t>Proves that disabling support for DTD in an XMLInputFactory and then transforming the XML through a safe reader from the XMLInputFactory is safe</t>
   </si>
   <si>
-    <t>Proves that setting TransformerFactory's ACCESS_EXTERNAL_DTD attribute to null makes the Transformer safe in Java 1.8</t>
-  </si>
-  <si>
-    <t>Proves that TransformerFactory has the ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_STYLESHEET attributes in Java 1.8 and that they can be set to null</t>
-  </si>
-  <si>
     <t>Proves that XMLInputFactory is unsafe by default</t>
-  </si>
-  <si>
-    <t>Proves that setting XMLInputFactory's ACCESS_EXTERNAL_DTD attribute to null makes the XMLStreamReader safe in Java 1.8</t>
-  </si>
-  <si>
-    <t>Proves that XMLInputFactory has the ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_STYLESHEET attributes in Java 1.8 and that they can be set to null</t>
   </si>
   <si>
     <t>Proves that setting XMLInputFactory's IS_SUPPORTING_EXTERNAL_ENTITIES attribute to false makes the XMLStreamReader safe</t>
@@ -375,9 +358,6 @@
     <t>testSafeXMLUsingValidator()</t>
   </si>
   <si>
-    <t>Proves that setting Validator's ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_SCHEMA properties makes the Validator safe</t>
-  </si>
-  <si>
     <t>True Positive</t>
   </si>
   <si>
@@ -420,26 +400,425 @@
     <t>Contrast Detection</t>
   </si>
   <si>
-    <t>javax.xml.parsers.DocumentBuilder</t>
-  </si>
-  <si>
-    <t>Unsafe (Safe in 1.8)</t>
-  </si>
-  <si>
-    <t>Fail (Pass in 1.8)</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Proves that setting SchemaFactory's ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_SCHEMA properties makes the Validator safe in Java 7u40 and up</t>
+  </si>
+  <si>
+    <t>Proves that setting Validator's ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_SCHEMA properties makes the Validator safe in Java 7u40 and up</t>
+  </si>
+  <si>
+    <t>Proves that setting TransformerFactory's ACCESS_EXTERNAL_DTD attribute to null makes the Transformer safe in Java 7u40 and up</t>
+  </si>
+  <si>
+    <t>Proves that TransformerFactory has the ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_STYLESHEET attributes in Java 7u40 and up and that they can be set to null</t>
+  </si>
+  <si>
+    <t>Proves that setting XMLInputFactory's ACCESS_EXTERNAL_DTD attribute to null makes the XMLStreamReader safe in Java 7u40 and up</t>
+  </si>
+  <si>
+    <t>Proves that XMLInputFactory has the ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_STYLESHEET attributes in Java 7u40 and up and that they can be set to null</t>
+  </si>
+  <si>
+    <t>Results.java</t>
+  </si>
+  <si>
+    <t>Case String</t>
+  </si>
+  <si>
+    <t>documentbuilderunsafedefault</t>
+  </si>
+  <si>
+    <t>documentbuildersafeexpansion</t>
+  </si>
+  <si>
+    <t>documentbuildersafedoctype</t>
+  </si>
+  <si>
+    <t>documentbuildersafeexternal</t>
+  </si>
+  <si>
+    <t>documentbuilderunsafeexternal</t>
+  </si>
+  <si>
+    <t>jaxbunsafefile</t>
+  </si>
+  <si>
+    <t>jaxbunsafeinputfactory</t>
+  </si>
+  <si>
+    <t>jaxbsafefilexmlinputfactory</t>
+  </si>
+  <si>
+    <t>saxunsafedefault</t>
+  </si>
+  <si>
+    <t>saxsafedoctype</t>
+  </si>
+  <si>
+    <t>saxunsafedoctype</t>
+  </si>
+  <si>
+    <t>saxsafeexternal</t>
+  </si>
+  <si>
+    <t>saxunsafeexternal</t>
+  </si>
+  <si>
+    <t>saxunsafevalidationoff</t>
+  </si>
+  <si>
+    <t>documentbuilderunsafevalidationoff</t>
+  </si>
+  <si>
+    <t>documentbuilderunsafevalidationon</t>
+  </si>
+  <si>
+    <t>saxunsafevalidationon</t>
+  </si>
+  <si>
+    <t>schemaunsafe</t>
+  </si>
+  <si>
+    <t>schemasafeaccess</t>
+  </si>
+  <si>
+    <t>schemasafeaccessvalidator</t>
+  </si>
+  <si>
+    <t>transformerunsafedefault</t>
+  </si>
+  <si>
+    <t>transformersafedtd</t>
+  </si>
+  <si>
+    <t>transformersafeaccess</t>
+  </si>
+  <si>
+    <r>
+      <t>java.beans.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XMLDecoder</t>
+    </r>
+  </si>
+  <si>
+    <t>XMLQueryResults.java</t>
+  </si>
+  <si>
+    <t>xmldecoder</t>
+  </si>
+  <si>
+    <t>Unsafe (Safe in 1.8 and up)</t>
+  </si>
+  <si>
+    <t>Fail (Pass in 1.8 and up)</t>
+  </si>
+  <si>
+    <t>Unsafe (Safe in 1.7u51 and up)</t>
+  </si>
+  <si>
+    <t>Proves that XML deserialized using a JAXB Unmarshaller is unsafe when unmarshalled directly from File (Safe in 1.8 and up)</t>
+  </si>
+  <si>
+    <t>Proves that XMLDecoder parses entities in Java versions 1.7u45 and earlier and does not in Java versions 1.7u51 and later</t>
+  </si>
+  <si>
+    <t>Proves that XOM's built in methods do not have the ability to add an external entity reference</t>
+  </si>
+  <si>
+    <r>
+      <t>nu.xom.Document (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>javax.xml.parsers.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DocumentBuilder</t>
+    </r>
+  </si>
+  <si>
+    <t>xmlinputunsafedefault</t>
+  </si>
+  <si>
+    <t>xmlinputsafeaccess</t>
+  </si>
+  <si>
+    <t>xmlinputsafeexternal</t>
+  </si>
+  <si>
+    <t>xmlinputsafedtd</t>
+  </si>
+  <si>
+    <t>xmlinputunsafevalidationoff</t>
+  </si>
+  <si>
+    <t>xmlinputunsafevalidationon</t>
+  </si>
+  <si>
+    <t>xmlreaderunsafedefault</t>
+  </si>
+  <si>
+    <t>xmlreadersafedoctype</t>
+  </si>
+  <si>
+    <t>xmlreaderunsafedoctype</t>
+  </si>
+  <si>
+    <t>xmlreadersafeexternal</t>
+  </si>
+  <si>
+    <t>xmlreaderunsafeexternal</t>
+  </si>
+  <si>
+    <t>xomsafe</t>
+  </si>
+  <si>
+    <t>xomunsafeinputstream</t>
+  </si>
+  <si>
+    <t>xomunsafexmlreader</t>
+  </si>
+  <si>
+    <t>Proves that when building the XOM Document from an unsafe XML InputStream, the Document parses the DTD</t>
+  </si>
+  <si>
+    <t>Proves that when building the XOM Document from an unsafe XMLReader, the Document parses the DTD</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>XXE Injection</t>
+  </si>
+  <si>
+    <t>XPath Injection</t>
+  </si>
+  <si>
+    <t>XQuery Injection</t>
+  </si>
+  <si>
+    <r>
+      <t>javax.xml.xpath (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java XPath API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>org.apache.xalan (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache Xalan-Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>javax.xml.xquery (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java XQuery API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>xpathunsafeconcat</t>
+  </si>
+  <si>
+    <t>xpathunsafeplaceholder</t>
+  </si>
+  <si>
+    <t>xpathsafeparam</t>
+  </si>
+  <si>
+    <t>xpathsafeescape</t>
+  </si>
+  <si>
+    <t>xalanunsafeconcat</t>
+  </si>
+  <si>
+    <t>xalanunsafeplaceholder</t>
+  </si>
+  <si>
+    <t>xalansafeescape</t>
+  </si>
+  <si>
+    <t>Proves that XPath is vulnerable to injection when using string concatenation on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is vulnerable to injection when using string placeholders on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is safe from injection when using an XPathVariableResolver to parameterize the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is safe from injection when using string concatenation while escaping apostrophes on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that Xalan is vulnerable to injection when using string concatenation on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that Xalan is vulnerable to injection when using string placeholders on the XPath expression</t>
+  </si>
+  <si>
+    <r>
+      <t>net.sf.saxon.s9api (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saxonica Saxon9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>saxonunsafeconcat</t>
+  </si>
+  <si>
+    <t>saxonunsafeplaceholder</t>
+  </si>
+  <si>
+    <t>saxonsafeparam</t>
+  </si>
+  <si>
+    <t>saxonsafeescape</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is vulnerable to injection when using string concatenation on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is vulnerable to injection when using string placeholders on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is safe from injection when using string concatenation while escaping apostrophes on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is safe from injection when using string concatenation while escaping apostrophes on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is safe from injection when using a QName to parameterize the XPath expression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +841,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -513,7 +900,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,24 +912,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="36">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,21 +977,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -648,21 +1037,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -688,21 +1067,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -728,21 +1097,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -768,21 +1127,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -808,151 +1157,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1117,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43966464"/>
-        <c:axId val="43967040"/>
+        <c:axId val="42655744"/>
+        <c:axId val="42656320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43966464"/>
+        <c:axId val="42655744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1151,20 +1360,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43967040"/>
+        <c:crossAx val="42656320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43967040"/>
+        <c:axId val="42656320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1189,14 +1397,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43966464"/>
+        <c:crossAx val="42655744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1329,11 +1536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43968768"/>
-        <c:axId val="43969344"/>
+        <c:axId val="42658048"/>
+        <c:axId val="42658624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43968768"/>
+        <c:axId val="42658048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1363,20 +1570,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43969344"/>
+        <c:crossAx val="42658624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43969344"/>
+        <c:axId val="42658624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1401,14 +1607,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43968768"/>
+        <c:crossAx val="42658048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1541,11 +1746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43971648"/>
-        <c:axId val="43972224"/>
+        <c:axId val="42660928"/>
+        <c:axId val="42661504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43971648"/>
+        <c:axId val="42660928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1575,20 +1780,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43972224"/>
+        <c:crossAx val="42661504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43972224"/>
+        <c:axId val="42661504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1613,14 +1817,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43971648"/>
+        <c:crossAx val="42660928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1760,6 +1963,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:I51">
+  <autoFilter ref="A1:I51"/>
+  <tableColumns count="9">
+    <tableColumn id="8" name="Tests"/>
+    <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
+    <tableColumn id="9" name="Vulnerability"/>
+    <tableColumn id="1" name="Filename"/>
+    <tableColumn id="6" name="Case String"/>
+    <tableColumn id="5" name="Testing if…"/>
+    <tableColumn id="4" name="Fortify Detection"/>
+    <tableColumn id="7" name="Contrast Detection"/>
+    <tableColumn id="2" name="Test Description" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A29:I37">
   <autoFilter ref="A29:I37"/>
   <tableColumns count="9">
@@ -1768,16 +1989,16 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="53"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="52"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="51"/>
-    <tableColumn id="9" name="Score" dataDxfId="50"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="35"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="34"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="33"/>
+    <tableColumn id="9" name="Score" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A2:I10">
   <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
@@ -1786,16 +2007,16 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="49"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="48"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="47"/>
-    <tableColumn id="9" name="Score" dataDxfId="46"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="31"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="30"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="29"/>
+    <tableColumn id="9" name="Score" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1364" displayName="Table1364" ref="A2:I10">
   <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
@@ -1804,10 +2025,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="45"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="44"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="43"/>
-    <tableColumn id="9" name="Score" dataDxfId="42"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="27"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="26"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="25"/>
+    <tableColumn id="9" name="Score" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2104,7 +2325,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,14 +2334,14 @@
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="141.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -2135,10 +2356,10 @@
         <v>23</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -2146,7 +2367,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2161,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -2172,7 +2393,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2187,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
@@ -2198,7 +2419,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2213,10 +2434,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
@@ -2239,38 +2460,38 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2291,10 +2512,10 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
@@ -2317,10 +2538,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>52</v>
@@ -2343,10 +2564,10 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -2369,10 +2590,10 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
         <v>54</v>
@@ -2395,10 +2616,10 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
         <v>55</v>
@@ -2418,16 +2639,16 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,13 +2668,13 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,13 +2694,13 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,13 +2720,13 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2525,13 +2746,13 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2551,13 +2772,13 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2577,13 +2798,13 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,13 +2824,13 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2629,13 +2850,13 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2655,13 +2876,13 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,7 +2890,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2681,13 +2902,13 @@
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2695,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2707,13 +2928,13 @@
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,25 +2942,25 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,7 +2968,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2759,13 +2980,13 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2773,7 +2994,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2785,13 +3006,13 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2799,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2811,21 +3032,21 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -2837,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,13 +3084,13 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2889,18 +3110,18 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>44</v>
@@ -2915,13 +3136,13 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,13 +3162,13 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,13 +3188,13 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,13 +3214,13 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3019,13 +3240,13 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3045,13 +3266,13 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3071,13 +3292,13 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,13 +3318,13 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3123,13 +3344,13 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3149,30 +3370,38 @@
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Safe">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Unsafe (Safe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Unsafe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Safe">
       <formula>NOT(ISERROR(SEARCH("Safe",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Unsafe">
-      <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Fail (Pass">
+      <formula>NOT(ISERROR(SEARCH("Fail (Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3184,6 +3413,1440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="141.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E52:E1048576 F1:F51">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Unsafe (Safe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Unsafe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Safe">
+      <formula>NOT(ISERROR(SEARCH("Safe",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:G1048576 G1:H51">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:G1048576 G1:H51">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail (Pass">
+      <formula>NOT(ISERROR(SEARCH("Fail (Pass",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -3209,45 +4872,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3342,7 +5005,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -3369,7 +5032,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3456,7 +5119,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" ref="B10" si="1">SUM(B3:B9)</f>
@@ -3493,45 +5156,45 @@
     </row>
     <row r="11" spans="1:9" ht="15.95" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3623,7 +5286,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3650,7 +5313,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3740,7 +5403,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B37" s="7">
         <f t="shared" ref="B37:E37" si="7">SUM(B30:B36)</f>
@@ -3790,7 +5453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -3812,45 +5475,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3939,7 +5602,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -3966,7 +5629,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -4047,7 +5710,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" ref="B10:E10" si="1">SUM(B3:B9)</f>

--- a/xxetest/Java XXE Test Case Results.xlsx
+++ b/xxetest/Java XXE Test Case Results.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet name="Command Line Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Web Tests" sheetId="4" r:id="rId2"/>
-    <sheet name="Fortify Results" sheetId="2" r:id="rId3"/>
-    <sheet name="Contrast Results" sheetId="3" r:id="rId4"/>
+    <sheet name="Fortify XXE Results" sheetId="2" r:id="rId3"/>
+    <sheet name="Contrast XXE Results" sheetId="3" r:id="rId4"/>
+    <sheet name="Fortify XPath Results" sheetId="6" r:id="rId5"/>
+    <sheet name="Contrast XPath Results" sheetId="7" r:id="rId6"/>
+    <sheet name="Fortify XQuery Results" sheetId="8" r:id="rId7"/>
+    <sheet name="Contrast XQuery Results" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="220">
   <si>
     <t>Filename</t>
   </si>
@@ -513,9 +517,6 @@
       </rPr>
       <t>XMLDecoder</t>
     </r>
-  </si>
-  <si>
-    <t>XMLQueryResults.java</t>
   </si>
   <si>
     <t>xmldecoder</t>
@@ -696,32 +697,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>javax.xml.xquery (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Java XQuery API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>xpathunsafeconcat</t>
   </si>
   <si>
@@ -812,6 +787,168 @@
   </si>
   <si>
     <t>Proves that Saxon is safe from injection when using a QName to parameterize the XPath expression</t>
+  </si>
+  <si>
+    <r>
+      <t>org.jdom2.input.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAXBuilder</t>
+    </r>
+  </si>
+  <si>
+    <t>saxbuilderunsafedefault</t>
+  </si>
+  <si>
+    <t>saxbuildersafedoctype</t>
+  </si>
+  <si>
+    <t>saxbuilderunsafedoctype</t>
+  </si>
+  <si>
+    <t>saxbuilderunsafeexternaloff</t>
+  </si>
+  <si>
+    <t>saxbuilderunsafeexternalon</t>
+  </si>
+  <si>
+    <t>saxbuilderunsafeexpand</t>
+  </si>
+  <si>
+    <t>saxbuildersafeexpand</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XQJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with com.saxonica.xqj.SaxonXQDataSource (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saxonica Saxon9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>*XQJ refers to javax.xml.xquery (the XQuery API for Java)</t>
+  </si>
+  <si>
+    <t>XPathResults.java</t>
+  </si>
+  <si>
+    <t>XQueryResults.java</t>
+  </si>
+  <si>
+    <t>Proves that SAXBuilder is unsafe by default</t>
+  </si>
+  <si>
+    <t>Proves that disallowing DOCTYPE declarations for the SAXBuilder makes it safe</t>
+  </si>
+  <si>
+    <t>Proves that allowing DOCTYPE declarations for the SAXBuilder leaves it unsafe</t>
+  </si>
+  <si>
+    <t>Proves that disabling external general entities for the SAXBuilder leaves it unsafe</t>
+  </si>
+  <si>
+    <t>Proves that enabling external general entities for the SAXBuilder leaves it unsafe</t>
+  </si>
+  <si>
+    <t>Proves that disabling entity expansion for the SAXBuilder makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Proves that enabling entity expansion for the SAXBuilder makes it unsafe from injection</t>
+  </si>
+  <si>
+    <t>saxonsafebind</t>
+  </si>
+  <si>
+    <t>saxonunsafeconcatprep</t>
+  </si>
+  <si>
+    <t>saxonunsafeplaceholderprep</t>
+  </si>
+  <si>
+    <t>saxonsafebindprep</t>
+  </si>
+  <si>
+    <t>saxonsafeescapeprep</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses string concatenation makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses string placeholders makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses bind variables makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses character escaping makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses string concatenation makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses string placeholders makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses bind variables makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses character escaping makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Fail (Pass in 1.7u45 and earlier)</t>
+  </si>
+  <si>
+    <t>XPath Parser</t>
+  </si>
+  <si>
+    <t>XQuery Parser</t>
+  </si>
+  <si>
+    <t>Fail (Pass in 1.7u51 and up)</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1037,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -913,18 +1050,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -932,86 +1072,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1156,6 +1216,30 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C6500"/>
       </font>
@@ -1164,6 +1248,140 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1244,24 +1462,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fortify Results'!$H$37</c:f>
+              <c:f>'Fortify XXE Results'!$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.40476190476190471</c:v>
+                  <c:v>0.28333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fortify Results'!$G$37</c:f>
+              <c:f>'Fortify XXE Results'!$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,11 +1544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42655744"/>
-        <c:axId val="42656320"/>
+        <c:axId val="43124992"/>
+        <c:axId val="43125568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42655744"/>
+        <c:axId val="43124992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1360,19 +1578,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42656320"/>
+        <c:crossAx val="43125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42656320"/>
+        <c:axId val="43125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1397,13 +1616,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42655744"/>
+        <c:crossAx val="43124992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1454,24 +1674,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fortify Results'!$H$10</c:f>
+              <c:f>'Fortify XXE Results'!$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fortify Results'!$G$10</c:f>
+              <c:f>'Fortify XXE Results'!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,11 +1756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42658048"/>
-        <c:axId val="42658624"/>
+        <c:axId val="43127296"/>
+        <c:axId val="43127872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42658048"/>
+        <c:axId val="43127296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1570,19 +1790,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42658624"/>
+        <c:crossAx val="43127872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42658624"/>
+        <c:axId val="43127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1607,13 +1828,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42658048"/>
+        <c:crossAx val="43127296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1664,7 +1886,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Contrast Results'!$H$10</c:f>
+              <c:f>'Contrast XXE Results'!$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1676,7 +1898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Contrast Results'!$G$10</c:f>
+              <c:f>'Contrast XXE Results'!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1746,11 +1968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42660928"/>
-        <c:axId val="42661504"/>
+        <c:axId val="43130176"/>
+        <c:axId val="171835392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42660928"/>
+        <c:axId val="43130176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1780,19 +2002,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42661504"/>
+        <c:crossAx val="171835392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42661504"/>
+        <c:axId val="171835392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1817,13 +2040,862 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42660928"/>
+        <c:crossAx val="43130176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fortify XPath Results'!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fortify XPath Results'!$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y=x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117431616"/>
+        <c:axId val="171840576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117431616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171840576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="171840576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117431616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Contrast XPath Results'!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Contrast XPath Results'!$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y=x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117430464"/>
+        <c:axId val="166453248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117430464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166453248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166453248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117430464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fortify XQuery Results'!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fortify XQuery Results'!$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y=x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="96513408"/>
+        <c:axId val="96513984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96513408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96513984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96513984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96513408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Contrast XQuery Results'!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Contrast XQuery Results'!$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y=x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="166456704"/>
+        <c:axId val="166457856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="166456704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166457856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166457856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>True Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166456704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1847,13 +2919,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>753072</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1877,13 +2949,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>753072</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1914,13 +2986,161 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>753072</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753072</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753072</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3009901</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3009901</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1963,8 +3183,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:I51">
-  <autoFilter ref="A1:I51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:I65">
+  <autoFilter ref="A1:I65"/>
   <tableColumns count="9">
     <tableColumn id="8" name="Tests"/>
     <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
@@ -1981,54 +3201,126 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A29:I37">
-  <autoFilter ref="A29:I37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A32:I43">
+  <autoFilter ref="A32:I43"/>
   <tableColumns count="9">
     <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
     <tableColumn id="1" name="True Positive"/>
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="35"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="34"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="33"/>
-    <tableColumn id="9" name="Score" dataDxfId="32"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="53"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="52"/>
+    <tableColumn id="9" name="Score" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A2:I10">
-  <autoFilter ref="A2:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A2:I13">
+  <autoFilter ref="A2:I13"/>
   <tableColumns count="9">
     <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
     <tableColumn id="1" name="True Positive"/>
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="31"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="30"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="29"/>
-    <tableColumn id="9" name="Score" dataDxfId="28"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="50"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="49"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="48"/>
+    <tableColumn id="9" name="Score" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1364" displayName="Table1364" ref="A2:I10">
-  <autoFilter ref="A2:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1364" displayName="Table1364" ref="A2:I13">
+  <autoFilter ref="A2:I13"/>
   <tableColumns count="9">
     <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
     <tableColumn id="1" name="True Positive"/>
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="27"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="26"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="25"/>
-    <tableColumn id="9" name="Score" dataDxfId="24"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="46"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="45"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="44"/>
+    <tableColumn id="9" name="Score" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1367" displayName="Table1367" ref="A2:I6">
+  <autoFilter ref="A2:I6"/>
+  <tableColumns count="9">
+    <tableColumn id="3" name="XPath Parser" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="True Positive"/>
+    <tableColumn id="5" name="False Negative"/>
+    <tableColumn id="7" name="True Negative"/>
+    <tableColumn id="6" name="False Positive"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="42"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="41"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="40"/>
+    <tableColumn id="9" name="Score" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13679" displayName="Table13679" ref="A2:I6">
+  <autoFilter ref="A2:I6"/>
+  <tableColumns count="9">
+    <tableColumn id="3" name="XPath Parser" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="True Positive"/>
+    <tableColumn id="5" name="False Negative"/>
+    <tableColumn id="7" name="True Negative"/>
+    <tableColumn id="6" name="False Positive"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="21"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="20"/>
+    <tableColumn id="9" name="Score" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table13678" displayName="Table13678" ref="A2:I4">
+  <autoFilter ref="A2:I4"/>
+  <tableColumns count="9">
+    <tableColumn id="3" name="XQuery Parser" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="True Positive"/>
+    <tableColumn id="5" name="False Negative"/>
+    <tableColumn id="7" name="True Negative"/>
+    <tableColumn id="6" name="False Positive"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="38"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="37"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="36"/>
+    <tableColumn id="9" name="Score" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1367810" displayName="Table1367810" ref="A2:I4">
+  <autoFilter ref="A2:I4"/>
+  <tableColumns count="9">
+    <tableColumn id="3" name="XQuery Parser" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="True Positive"/>
+    <tableColumn id="5" name="False Negative"/>
+    <tableColumn id="7" name="True Negative"/>
+    <tableColumn id="6" name="False Positive"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="18"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="17"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="16"/>
+    <tableColumn id="9" name="Score" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2324,7 +3616,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2474,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -2639,16 +3931,16 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
         <v>131</v>
       </c>
-      <c r="F12" t="s">
-        <v>132</v>
-      </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,26 +4673,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Unsafe (Safe">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Unsafe (Safe">
       <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Unsafe">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="Unsafe">
       <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Safe">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="Safe">
       <formula>NOT(ISERROR(SEARCH("Safe",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Fail (Pass">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Fail (Pass">
       <formula>NOT(ISERROR(SEARCH("Fail (Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3414,34 +4706,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" activeCellId="2" sqref="B50 B54 B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="141.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3470,7 +4763,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3496,10 +4789,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>103</v>
@@ -3528,7 +4821,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -3557,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
         <v>103</v>
@@ -3577,8 +4870,8 @@
       <c r="I5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3588,7 +4881,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
         <v>103</v>
@@ -3608,8 +4901,8 @@
       <c r="I6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3619,7 +4912,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
         <v>103</v>
@@ -3639,8 +4932,8 @@
       <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3650,7 +4943,7 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
         <v>103</v>
@@ -3679,7 +4972,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>103</v>
@@ -3688,16 +4981,16 @@
         <v>110</v>
       </c>
       <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
         <v>131</v>
       </c>
-      <c r="G9" t="s">
-        <v>132</v>
-      </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3708,7 +5001,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
         <v>103</v>
@@ -3737,7 +5030,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
         <v>103</v>
@@ -3763,28 +5056,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
         <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3792,16 +5085,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -3813,7 +5106,7 @@
         <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3821,28 +5114,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3850,28 +5143,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3879,28 +5172,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,28 +5201,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,28 +5230,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,28 +5259,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>95</v>
+      <c r="G19" t="s">
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>65</v>
+      <c r="I19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,28 +5288,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>96</v>
       </c>
       <c r="H20" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>97</v>
+      <c r="I20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,28 +5317,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
         <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
         <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,28 +5346,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
         <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4082,28 +5375,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
         <v>95</v>
       </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,28 +5404,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
         <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>95</v>
       </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4140,22 +5433,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
         <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,28 +5462,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
         <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G26" t="s">
-        <v>96</v>
+      <c r="G26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
       </c>
-      <c r="I26" t="s">
-        <v>68</v>
+      <c r="I26" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4192,28 +5491,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G27" t="s">
-        <v>95</v>
+      <c r="G27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H27" t="s">
         <v>96</v>
       </c>
-      <c r="I27" t="s">
-        <v>101</v>
+      <c r="I27" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4221,28 +5520,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H28" t="s">
         <v>96</v>
       </c>
-      <c r="I28" t="s">
-        <v>69</v>
+      <c r="I28" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4250,16 +5549,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
@@ -4271,7 +5570,7 @@
         <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4279,28 +5578,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,28 +5607,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
         <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4337,28 +5636,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
         <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4366,28 +5665,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
         <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4395,28 +5694,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,16 +5723,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -4445,7 +5744,7 @@
         <v>96</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4453,16 +5752,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
         <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
@@ -4474,7 +5773,7 @@
         <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4482,22 +5781,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
         <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4505,22 +5810,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4528,22 +5839,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
         <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
       </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4551,22 +5868,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,22 +5897,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>158</v>
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
       </c>
+      <c r="G41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
+        <v>95</v>
+      </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4597,22 +5926,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>158</v>
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
       </c>
+      <c r="G42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
       <c r="I42" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4620,22 +5955,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4643,22 +5984,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
       </c>
       <c r="I44" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4666,22 +6013,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
         <v>21</v>
       </c>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>95</v>
+      </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4689,22 +6042,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
+        <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4712,22 +6071,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
         <v>21</v>
       </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" t="s">
+        <v>95</v>
+      </c>
       <c r="I47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4735,22 +6100,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
         <v>21</v>
       </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4758,22 +6129,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
       </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4781,22 +6158,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" t="s">
+        <v>95</v>
       </c>
       <c r="I50" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4804,37 +6187,463 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D51" t="s">
-        <v>129</v>
+      <c r="C52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E52:E1048576 F1:F51">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Unsafe (Safe">
+  <conditionalFormatting sqref="E66:E68 E73:E1048576 F1:F65">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Unsafe (Safe">
       <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Unsafe">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Unsafe">
       <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Safe">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Safe">
       <formula>NOT(ISERROR(SEARCH("Safe",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:G1048576 G1:H51">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="F66:G68 F73:G1048576 G1:H65">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:G1048576 G1:H51">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail (Pass">
+  <conditionalFormatting sqref="F66:G68 F73:G1048576 G1:H65">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Fail (Pass">
       <formula>NOT(ISERROR(SEARCH("Fail (Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4848,10 +6657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" activeCellId="2" sqref="A5 A9 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,17 +6681,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4928,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">SUM(B3:E3)</f>
+        <f t="shared" ref="F3:F12" si="0">SUM(B3:E3)</f>
         <v>7</v>
       </c>
       <c r="G3" s="5">
@@ -4944,7 +6753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -4975,14 +6784,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5">
         <v>2</v>
       </c>
@@ -4992,7 +6800,7 @@
       </c>
       <c r="G5" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
@@ -5000,26 +6808,26 @@
       </c>
       <c r="I5" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
@@ -5027,18 +6835,17 @@
       </c>
       <c r="I6" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="E7">
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="F7">
@@ -5047,34 +6854,30 @@
       </c>
       <c r="G7" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
@@ -5082,27 +6885,27 @@
       </c>
       <c r="H8" s="5">
         <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" s="15">
+        <v>1E-100</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
         <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
@@ -5117,215 +6920,214 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10" s="5">
+        <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <f>IF(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]=0,"N/A",Table136[[#This Row],[True Positive]]/(Table136[[#This Row],[True Positive]]+Table136[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Table136[[#This Row],[False Positive]]/(Table136[[#This Row],[False Positive]]+Table136[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>(Table136[[#This Row],[True Posistive Rate]]+(1 - Table136[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" ref="B10" si="1">SUM(B3:B9)</f>
-        <v>18</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" ref="C10" si="2">SUM(C3:C9)</f>
+      <c r="B13" s="7">
+        <f>SUM(B3:B12)</f>
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <f>SUM(C3:C12)</f>
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SUM(D3:D12)</f>
+        <v>14</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(E3:E12)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(F3:F12)</f>
+        <v>45</v>
+      </c>
+      <c r="G13" s="7">
+        <f>AVERAGE(G3:G12)</f>
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="7">
+        <f>AVERAGE(H3:H12)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I13" s="7">
+        <f>ROUND(AVERAGE(I3:I12)*100, 0)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" ref="D10" si="3">SUM(D3:D9)</f>
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" ref="E10" si="4">SUM(E3:E9)</f>
-        <v>5</v>
-      </c>
-      <c r="F10" s="7">
-        <f>SUM(F3:F9)</f>
-        <v>34</v>
-      </c>
-      <c r="G10" s="7">
-        <f>AVERAGE(G3:G9)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" ref="H10" si="5">AVERAGE(H3:H9)</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="I10" s="7">
-        <f>ROUND(AVERAGE(I3:I9)*100, 0)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.95" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F42" si="1">SUM(B33:E33)</f>
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:F36" si="6">SUM(B30:E30)</f>
-        <v>7</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="G33" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
         <v>1</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H33" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I33" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G31" s="5">
-        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="G32" s="5">
-        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="5">
-        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="5">
-        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G33" s="5">
-        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G34" s="5">
@@ -5334,49 +7136,46 @@
       </c>
       <c r="H34" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="G35" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="5">
         <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="I35" s="5">
         <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0.33333333333333348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -5385,8 +7184,8 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="G36" s="5">
         <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
@@ -5401,47 +7200,218 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="5">
+        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="5">
+        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1E-100</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G40" s="5">
+        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I40" s="5">
+        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="5">
+        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="5">
+        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G42" s="5">
+        <f>IF(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]=0,"N/A",Table13[[#This Row],[True Positive]]/(Table13[[#This Row],[True Positive]]+Table13[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <f>Table13[[#This Row],[False Positive]]/(Table13[[#This Row],[False Positive]]+Table13[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f>(Table13[[#This Row],[True Posistive Rate]]+(1 - Table13[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="7">
-        <f t="shared" ref="B37:E37" si="7">SUM(B30:B36)</f>
+      <c r="B43" s="7">
+        <f>SUM(B33:B42)</f>
         <v>17</v>
       </c>
-      <c r="C37" s="7">
-        <f>SUM(C30:C36)</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <f>SUM(D30:D36)</f>
-        <v>9</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="7"/>
+      <c r="C43" s="7">
+        <f>SUM(C33:C42)</f>
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
+        <f>SUM(D33:D42)</f>
+        <v>13</v>
+      </c>
+      <c r="E43" s="7">
+        <f>SUM(E33:E42)</f>
         <v>7</v>
       </c>
-      <c r="F37" s="7">
-        <f>SUM(F30:F36)</f>
-        <v>34</v>
-      </c>
-      <c r="G37" s="7">
-        <f>AVERAGE(G30:G36)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" ref="H37" si="8">AVERAGE(H30:H36)</f>
-        <v>0.40476190476190471</v>
-      </c>
-      <c r="I37" s="7">
-        <f>ROUND(AVERAGE(I30:I36) * 100, 0)</f>
+      <c r="F43" s="7">
+        <f>SUM(F33:F42)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G43" s="7">
+        <f>AVERAGE(G33:G42)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H43" s="7">
+        <f>AVERAGE(H33:H42)</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="I43" s="7">
+        <f>ROUND(AVERAGE(I33:I42) * 100, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5455,10 +7425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,17 +7445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5527,7 +7497,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">SUM(B3:E3)</f>
+        <f t="shared" ref="F3:F10" si="0">SUM(B3:E3)</f>
         <v>7</v>
       </c>
       <c r="G3" s="5">
@@ -5543,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -5573,46 +7543,33 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4">
         <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="G5" s="5">
-        <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="G6" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
@@ -5627,17 +7584,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="3">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5654,19 +7611,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
@@ -5681,71 +7638,805 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B11:E11)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" ref="B10:E10" si="1">SUM(B3:B9)</f>
+      <c r="B13" s="7">
+        <f>SUM(B3:B11)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="1"/>
+      <c r="C13" s="7">
+        <f>SUM(C3:C11)</f>
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SUM(D3:D11)</f>
+        <v>17</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(E3:E11)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="7">
-        <f>SUM(F3:F9)</f>
+      <c r="F13" s="7">
+        <f>SUM(F3:F11)</f>
         <v>34</v>
       </c>
-      <c r="G10" s="7">
-        <f>AVERAGE(G3:G9)</f>
+      <c r="G13" s="7">
+        <f>AVERAGE(G3:G11)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="7">
-        <f t="shared" ref="H10" si="2">AVERAGE(H3:H9)</f>
+      <c r="H13" s="7">
+        <f>AVERAGE(H3:H11)</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I10" s="7">
-        <f>ROUND(AVERAGE(I3:I9)*100, 0)</f>
+      <c r="I13" s="7">
+        <f>ROUND(AVERAGE(I3:I11)*100, 0)</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.95" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">SUM(B3:E3)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(Table1367[[#This Row],[True Positive]]+Table1367[[#This Row],[False Negative]]=0,"N/A",Table1367[[#This Row],[True Positive]]/(Table1367[[#This Row],[True Positive]]+Table1367[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Table1367[[#This Row],[False Positive]]/(Table1367[[#This Row],[False Positive]]+Table1367[[#This Row],[True Negative]])</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(Table1367[[#This Row],[True Posistive Rate]]+(1 - Table1367[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IF(Table1367[[#This Row],[True Positive]]+Table1367[[#This Row],[False Negative]]=0,"N/A",Table1367[[#This Row],[True Positive]]/(Table1367[[#This Row],[True Positive]]+Table1367[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Table1367[[#This Row],[False Positive]]/(Table1367[[#This Row],[False Positive]]+Table1367[[#This Row],[True Negative]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="5">
+        <f>(Table1367[[#This Row],[True Posistive Rate]]+(1 - Table1367[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IF(Table1367[[#This Row],[True Positive]]+Table1367[[#This Row],[False Negative]]=0,"N/A",Table1367[[#This Row],[True Positive]]/(Table1367[[#This Row],[True Positive]]+Table1367[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Table1367[[#This Row],[False Positive]]/(Table1367[[#This Row],[False Positive]]+Table1367[[#This Row],[True Negative]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="5">
+        <f>(Table1367[[#This Row],[True Posistive Rate]]+(1 - Table1367[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUM(B3:B5)</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUM(C3:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUM(D3:D5)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUM(E3:E5)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <f>SUM(F3:F5)</f>
+        <v>11</v>
+      </c>
+      <c r="G6" s="7">
+        <f>AVERAGE(G3:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f>AVERAGE(H3:H5)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I6" s="7">
+        <f>ROUND(AVERAGE(I3:I5)*100, 0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">SUM(B3:E3)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(Table13679[[#This Row],[True Positive]]+Table13679[[#This Row],[False Negative]]=0,"N/A",Table13679[[#This Row],[True Positive]]/(Table13679[[#This Row],[True Positive]]+Table13679[[#This Row],[False Negative]]))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Table13679[[#This Row],[False Positive]]/(Table13679[[#This Row],[False Positive]]+Table13679[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(Table13679[[#This Row],[True Posistive Rate]]+(1 - Table13679[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IF(Table13679[[#This Row],[True Positive]]+Table13679[[#This Row],[False Negative]]=0,"N/A",Table13679[[#This Row],[True Positive]]/(Table13679[[#This Row],[True Positive]]+Table13679[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Table13679[[#This Row],[False Positive]]/(Table13679[[#This Row],[False Positive]]+Table13679[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>(Table13679[[#This Row],[True Posistive Rate]]+(1 - Table13679[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IF(Table13679[[#This Row],[True Positive]]+Table13679[[#This Row],[False Negative]]=0,"N/A",Table13679[[#This Row],[True Positive]]/(Table13679[[#This Row],[True Positive]]+Table13679[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Table13679[[#This Row],[False Positive]]/(Table13679[[#This Row],[False Positive]]+Table13679[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>(Table13679[[#This Row],[True Posistive Rate]]+(1 - Table13679[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUM(B3:B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUM(C3:C5)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUM(D3:D5)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUM(E3:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f>SUM(F3:F5)</f>
+        <v>11</v>
+      </c>
+      <c r="G6" s="7">
+        <f>AVERAGE(G3:G5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H6" s="7">
+        <f>AVERAGE(H3:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>ROUND(AVERAGE(I3:I5)*100, 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3" si="0">SUM(B3:E3)</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(Table13678[[#This Row],[True Positive]]+Table13678[[#This Row],[False Negative]]=0,"N/A",Table13678[[#This Row],[True Positive]]/(Table13678[[#This Row],[True Positive]]+Table13678[[#This Row],[False Negative]]))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Table13678[[#This Row],[False Positive]]/(Table13678[[#This Row],[False Positive]]+Table13678[[#This Row],[True Negative]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(Table13678[[#This Row],[True Posistive Rate]]+(1 - Table13678[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUM(B3:B3)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUM(C3:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(D3:D3)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUM(E3:E3)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <f>SUM(F3:F3)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
+        <f>AVERAGE(G3:G3)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <f>AVERAGE(H3:H3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="7">
+        <f>ROUND(AVERAGE(I3:I3)*100, 0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3" si="0">SUM(B3:E3)</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(Table1367810[[#This Row],[True Positive]]+Table1367810[[#This Row],[False Negative]]=0,"N/A",Table1367810[[#This Row],[True Positive]]/(Table1367810[[#This Row],[True Positive]]+Table1367810[[#This Row],[False Negative]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Table1367810[[#This Row],[False Positive]]/(Table1367810[[#This Row],[False Positive]]+Table1367810[[#This Row],[True Negative]])</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(Table1367810[[#This Row],[True Posistive Rate]]+(1 - Table1367810[[#This Row],[False Positive Rate]])) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUM(B3:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUM(C3:C3)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(D3:D3)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUM(E3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>SUM(F3:F3)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
+        <f>AVERAGE(G3:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f>AVERAGE(H3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f>ROUND(AVERAGE(I3:I3)*100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/xxetest/Java XXE Test Case Results.xlsx
+++ b/xxetest/Java XXE Test Case Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-3885" yWindow="165" windowWidth="28215" windowHeight="13095"/>
+    <workbookView xWindow="-690" yWindow="585" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Web Tests" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="323">
   <si>
     <t>Filename</t>
   </si>
@@ -428,81 +428,6 @@
     <t>Proves that XMLInputFactory has the ACCESS_EXTERNAL_DTD and ACCESS_EXTERNAL_STYLESHEET attributes in Java 7u40 and up and that they can be set to null</t>
   </si>
   <si>
-    <t>Results.java</t>
-  </si>
-  <si>
-    <t>Case String</t>
-  </si>
-  <si>
-    <t>documentbuilderunsafedefault</t>
-  </si>
-  <si>
-    <t>documentbuildersafeexpansion</t>
-  </si>
-  <si>
-    <t>documentbuildersafedoctype</t>
-  </si>
-  <si>
-    <t>documentbuildersafeexternal</t>
-  </si>
-  <si>
-    <t>documentbuilderunsafeexternal</t>
-  </si>
-  <si>
-    <t>jaxbunsafefile</t>
-  </si>
-  <si>
-    <t>jaxbunsafeinputfactory</t>
-  </si>
-  <si>
-    <t>jaxbsafefilexmlinputfactory</t>
-  </si>
-  <si>
-    <t>saxunsafedefault</t>
-  </si>
-  <si>
-    <t>saxsafedoctype</t>
-  </si>
-  <si>
-    <t>saxunsafedoctype</t>
-  </si>
-  <si>
-    <t>saxsafeexternal</t>
-  </si>
-  <si>
-    <t>saxunsafeexternal</t>
-  </si>
-  <si>
-    <t>saxunsafevalidationoff</t>
-  </si>
-  <si>
-    <t>documentbuilderunsafevalidationoff</t>
-  </si>
-  <si>
-    <t>documentbuilderunsafevalidationon</t>
-  </si>
-  <si>
-    <t>saxunsafevalidationon</t>
-  </si>
-  <si>
-    <t>schemaunsafe</t>
-  </si>
-  <si>
-    <t>schemasafeaccess</t>
-  </si>
-  <si>
-    <t>schemasafeaccessvalidator</t>
-  </si>
-  <si>
-    <t>transformerunsafedefault</t>
-  </si>
-  <si>
-    <t>transformersafedtd</t>
-  </si>
-  <si>
-    <t>transformersafeaccess</t>
-  </si>
-  <si>
     <r>
       <t>java.beans.</t>
     </r>
@@ -519,9 +444,6 @@
     </r>
   </si>
   <si>
-    <t>xmldecoder</t>
-  </si>
-  <si>
     <t>Unsafe (Safe in 1.8 and up)</t>
   </si>
   <si>
@@ -535,9 +457,6 @@
   </si>
   <si>
     <t>Proves that XMLDecoder parses entities in Java versions 1.7u45 and earlier and does not in Java versions 1.7u51 and later</t>
-  </si>
-  <si>
-    <t>Proves that XOM's built in methods do not have the ability to add an external entity reference</t>
   </si>
   <si>
     <r>
@@ -582,48 +501,6 @@
     </r>
   </si>
   <si>
-    <t>xmlinputunsafedefault</t>
-  </si>
-  <si>
-    <t>xmlinputsafeaccess</t>
-  </si>
-  <si>
-    <t>xmlinputsafeexternal</t>
-  </si>
-  <si>
-    <t>xmlinputsafedtd</t>
-  </si>
-  <si>
-    <t>xmlinputunsafevalidationoff</t>
-  </si>
-  <si>
-    <t>xmlinputunsafevalidationon</t>
-  </si>
-  <si>
-    <t>xmlreaderunsafedefault</t>
-  </si>
-  <si>
-    <t>xmlreadersafedoctype</t>
-  </si>
-  <si>
-    <t>xmlreaderunsafedoctype</t>
-  </si>
-  <si>
-    <t>xmlreadersafeexternal</t>
-  </si>
-  <si>
-    <t>xmlreaderunsafeexternal</t>
-  </si>
-  <si>
-    <t>xomsafe</t>
-  </si>
-  <si>
-    <t>xomunsafeinputstream</t>
-  </si>
-  <si>
-    <t>xomunsafexmlreader</t>
-  </si>
-  <si>
     <t>Proves that when building the XOM Document from an unsafe XML InputStream, the Document parses the DTD</t>
   </si>
   <si>
@@ -697,45 +574,6 @@
     </r>
   </si>
   <si>
-    <t>xpathunsafeconcat</t>
-  </si>
-  <si>
-    <t>xpathunsafeplaceholder</t>
-  </si>
-  <si>
-    <t>xpathsafeparam</t>
-  </si>
-  <si>
-    <t>xpathsafeescape</t>
-  </si>
-  <si>
-    <t>xalanunsafeconcat</t>
-  </si>
-  <si>
-    <t>xalanunsafeplaceholder</t>
-  </si>
-  <si>
-    <t>xalansafeescape</t>
-  </si>
-  <si>
-    <t>Proves that XPath is vulnerable to injection when using string concatenation on the XPathExpression</t>
-  </si>
-  <si>
-    <t>Proves that XPath is vulnerable to injection when using string placeholders on the XPathExpression</t>
-  </si>
-  <si>
-    <t>Proves that XPath is safe from injection when using an XPathVariableResolver to parameterize the XPathExpression</t>
-  </si>
-  <si>
-    <t>Proves that XPath is safe from injection when using string concatenation while escaping apostrophes on the XPathExpression</t>
-  </si>
-  <si>
-    <t>Proves that Xalan is vulnerable to injection when using string concatenation on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that Xalan is vulnerable to injection when using string placeholders on the XPath expression</t>
-  </si>
-  <si>
     <r>
       <t>net.sf.saxon.s9api (</t>
     </r>
@@ -762,30 +600,6 @@
     </r>
   </si>
   <si>
-    <t>saxonunsafeconcat</t>
-  </si>
-  <si>
-    <t>saxonunsafeplaceholder</t>
-  </si>
-  <si>
-    <t>saxonsafeparam</t>
-  </si>
-  <si>
-    <t>saxonsafeescape</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is vulnerable to injection when using string concatenation on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is vulnerable to injection when using string placeholders on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is safe from injection when using string concatenation while escaping apostrophes on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is safe from injection when using a QName to parameterize the XPath expression</t>
-  </si>
-  <si>
     <r>
       <t>org.jdom2.input.</t>
     </r>
@@ -800,27 +614,6 @@
       </rPr>
       <t>SAXBuilder</t>
     </r>
-  </si>
-  <si>
-    <t>saxbuilderunsafedefault</t>
-  </si>
-  <si>
-    <t>saxbuildersafedoctype</t>
-  </si>
-  <si>
-    <t>saxbuilderunsafedoctype</t>
-  </si>
-  <si>
-    <t>saxbuilderunsafeexternaloff</t>
-  </si>
-  <si>
-    <t>saxbuilderunsafeexternalon</t>
-  </si>
-  <si>
-    <t>saxbuilderunsafeexpand</t>
-  </si>
-  <si>
-    <t>saxbuildersafeexpand</t>
   </si>
   <si>
     <r>
@@ -870,12 +663,6 @@
     <t>*XQJ refers to javax.xml.xquery (the XQuery API for Java)</t>
   </si>
   <si>
-    <t>XPathResults.java</t>
-  </si>
-  <si>
-    <t>XQueryResults.java</t>
-  </si>
-  <si>
     <t>Proves that SAXBuilder is unsafe by default</t>
   </si>
   <si>
@@ -885,39 +672,18 @@
     <t>Proves that allowing DOCTYPE declarations for the SAXBuilder leaves it unsafe</t>
   </si>
   <si>
-    <t>Proves that disabling external general entities for the SAXBuilder leaves it unsafe</t>
-  </si>
-  <si>
-    <t>Proves that enabling external general entities for the SAXBuilder leaves it unsafe</t>
-  </si>
-  <si>
     <t>Proves that disabling entity expansion for the SAXBuilder makes it safe from injection</t>
   </si>
   <si>
     <t>Proves that enabling entity expansion for the SAXBuilder makes it unsafe from injection</t>
   </si>
   <si>
-    <t>saxonsafebind</t>
-  </si>
-  <si>
-    <t>Proves that using the XQExpression class to execute an XQuery expression that uses string concatenation makes it vulnerable to injection</t>
-  </si>
-  <si>
-    <t>Proves that using the XQExpression class to execute an XQuery expression that uses string placeholders makes it vulnerable to injection</t>
-  </si>
-  <si>
     <t>Proves that using the XQExpression class to execute an XQuery expression that uses bind variables makes it safe from injection</t>
   </si>
   <si>
     <t>Proves that using the XQExpression class to execute an XQuery expression that uses character escaping makes it safe from injection</t>
   </si>
   <si>
-    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses string concatenation makes it vulnerable to injection</t>
-  </si>
-  <si>
-    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses string placeholders makes it vulnerable to injection</t>
-  </si>
-  <si>
     <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses bind variables makes it safe from injection</t>
   </si>
   <si>
@@ -931,12 +697,6 @@
   </si>
   <si>
     <t>XQuery Parser</t>
-  </si>
-  <si>
-    <t>Fail (Pass in 1.7u51 and up)</t>
-  </si>
-  <si>
-    <t>javax.xml.parsers.DocumentBuilder</t>
   </si>
   <si>
     <r>
@@ -994,114 +754,6 @@
     <t>Unsafe (Supposed Safe)</t>
   </si>
   <si>
-    <t>xalansafelist</t>
-  </si>
-  <si>
-    <t>xpathsafelist</t>
-  </si>
-  <si>
-    <t>saxonsafelist</t>
-  </si>
-  <si>
-    <t>xqjsaxonunsafeconcat</t>
-  </si>
-  <si>
-    <t>xqjsaxonunsafeplaceholder</t>
-  </si>
-  <si>
-    <t>xqjsaxonsafebind</t>
-  </si>
-  <si>
-    <t>xqjsaxonsafelist</t>
-  </si>
-  <si>
-    <t>xqjsaxonsafeescape</t>
-  </si>
-  <si>
-    <t>xqjsaxonunsafeconcatprep</t>
-  </si>
-  <si>
-    <t>xqjsaxonunsafeplaceholderprep</t>
-  </si>
-  <si>
-    <t>xqjsaxonsafebindprep</t>
-  </si>
-  <si>
-    <t>xqjsaxonsafelistprep</t>
-  </si>
-  <si>
-    <t>xqjsaxonsafeescapeprep</t>
-  </si>
-  <si>
-    <t>dom4junsafeconcat</t>
-  </si>
-  <si>
-    <t>dom4junsafeplaceholder</t>
-  </si>
-  <si>
-    <t>dom4safelist</t>
-  </si>
-  <si>
-    <t>dom4jsafeescape</t>
-  </si>
-  <si>
-    <t>vtdunsafeconcat</t>
-  </si>
-  <si>
-    <t>vtdunsafeplaceholder</t>
-  </si>
-  <si>
-    <t>vtdsafelist</t>
-  </si>
-  <si>
-    <t>vtdsafeescape</t>
-  </si>
-  <si>
-    <t>Proves that XPath is safe from injection when whitelisting on the XPathExpression</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is safe from injection when whitelisting on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that using the XQExpression class to execute an XQuery expression that uses whitelisting makes it safe from injection</t>
-  </si>
-  <si>
-    <t>Proves that using the XQPreparedExpression class to prepare the XQuery expression that uses whitelisting makes it safe from injection</t>
-  </si>
-  <si>
-    <t>Proves that Xalan is safe from injection when whitelisting on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that Xalan is safe from injection when using string concatenation while escaping apostrophes on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that DOM4J is vulnerable to injection when using string concatenation on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that DOM4J is vulnerable to injection when using string placeholders on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that DOM4J is safe from injection when whitelisting on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that DOM4J is safe from injection when using string concatenation while escaping apostrophes on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that VTD-XML is vulnerable to injection when using string concatenation on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that VTD-XML is vulnerable to injection when using string placeholders on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that VTD-XML is safe from injection when whitelisting on the XPath expression</t>
-  </si>
-  <si>
-    <t>Proves that VTD-XML is safe from injection when using string concatenation while escaping apostrophes on the XPath expression</t>
-  </si>
-  <si>
-    <t>vtdunsafeparam</t>
-  </si>
-  <si>
     <t>Test Title</t>
   </si>
   <si>
@@ -1189,9 +841,6 @@
     <t>Unsafe when Using String Placeholders on XPath Expression Example</t>
   </si>
   <si>
-    <t>Safe when Whitelisting on XPath Expression Example</t>
-  </si>
-  <si>
     <t>Safe when Escaping Apostrophes on XPath Expression Example</t>
   </si>
   <si>
@@ -1204,9 +853,6 @@
     <t>Safe when Parameterizing on XPathExpression Example</t>
   </si>
   <si>
-    <t>Safe when Whitelisting on XPathExpression Example</t>
-  </si>
-  <si>
     <t>Safe when Escaping Apostrophes on XPathExpression Example</t>
   </si>
   <si>
@@ -1225,9 +871,6 @@
     <t>Safe when Using Bind Variables on XQExpression Example</t>
   </si>
   <si>
-    <t>Safe when Whitelisting on XQExpression Example</t>
-  </si>
-  <si>
     <t>Safe when Escaping Quotation Marks and Semicolons on XQExpression Example</t>
   </si>
   <si>
@@ -1240,9 +883,6 @@
     <t>Safe when Using Bind Variables on XQPreparedExpression Example</t>
   </si>
   <si>
-    <t>Safe when Whitelisting on XQPreparedExpression Example</t>
-  </si>
-  <si>
     <t>Safe when Escaping Quotation Marks and Semicolons on XQPreparedExpression Example</t>
   </si>
   <si>
@@ -1255,31 +895,507 @@
     <t>Safe when Using Bind Variables on XQuery Expression Example</t>
   </si>
   <si>
-    <t>Safe when Whitelisting on XQuery Expression Example</t>
-  </si>
-  <si>
     <t>Safe when Escaping Quotation Marks and Semicolons on XQuery Expression Example</t>
   </si>
   <si>
-    <t>Proves that Saxon is vulnerable to injection when using string concatenation on the XQuery expression</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is vulnerable to injection when using string placeholders on the XQuery expression</t>
-  </si>
-  <si>
-    <t>Proves that Saxon is safe from injection when whitelisting on the XQuery expression</t>
-  </si>
-  <si>
     <t>Proves that Saxon is safe from injection when using bind variables on the XQuery expression</t>
   </si>
   <si>
     <t>Proves that Saxon is safe from injection when using character escaping on the XQuery expression</t>
   </si>
   <si>
-    <t>Proves that VTD-XML can still be injected upon even when parameterizing the XPath expression</t>
-  </si>
-  <si>
     <t>Pass (Fail in 1.8 and up)</t>
+  </si>
+  <si>
+    <t>Proves that disabling External general entities for the DocumentBuilderFactory makes the DocumentBuilder safe</t>
+  </si>
+  <si>
+    <t>Proves that enabling External general entities for the DocumentBuilderFactory leaves the DocumentBuilder unsafe</t>
+  </si>
+  <si>
+    <t>Proves that disabling External general entities for the SAXBuilder leaves it unsafe</t>
+  </si>
+  <si>
+    <t>Proves that enabling External general entities for the SAXBuilder leaves it unsafe</t>
+  </si>
+  <si>
+    <t>Proves that disabling External general entities for the SAXParserFactory makes the SAXParser safe</t>
+  </si>
+  <si>
+    <t>Proves that enabling External general entities for the SAXParserFactory leaves the SAXParser unsafe</t>
+  </si>
+  <si>
+    <t>Proves that XOM's built in methods do not have the ability to add an External entity reference</t>
+  </si>
+  <si>
+    <t>Proves that Xalan is vulnerable to injection when using string Concatenation on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that Xalan is safe from injection when using string Concatenation while escaping apostrophes on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that DOM4J is vulnerable to injection when using string Concatenation on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that DOM4J is safe from injection when using string Concatenation while escaping apostrophes on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is vulnerable to injection when using string Concatenation on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is safe from injection when using string Concatenation while escaping apostrophes on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is vulnerable to injection when using string Concatenation on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is safe from injection when using string Concatenation while escaping apostrophes on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that VTD-XML is vulnerable to injection when using string Concatenation on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that VTD-XML is safe from injection when using string Concatenation while escaping apostrophes on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses string Concatenation makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses string Concatenation makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is vulnerable to injection when using string Concatenation on the XQuery expression</t>
+  </si>
+  <si>
+    <t>Proves that Xalan is safe from injection when whiteListing on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that DOM4J is safe from injection when whiteListing on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is safe from injection when whiteListing on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is safe from injection when whiteListing on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that VTD-XML is safe from injection when whiteListing on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses whiteListing makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is safe from injection when whiteListing on the XQuery expression</t>
+  </si>
+  <si>
+    <t>Safe when WhiteListing on XPath Expression Example</t>
+  </si>
+  <si>
+    <t>Safe when WhiteListing on XPathExpression Example</t>
+  </si>
+  <si>
+    <t>Safe when WhiteListing on XQExpression Example</t>
+  </si>
+  <si>
+    <t>Safe when WhiteListing on XQPreparedExpression Example</t>
+  </si>
+  <si>
+    <t>Safe when WhiteListing on XQuery Expression Example</t>
+  </si>
+  <si>
+    <t>Proves that disabling External general and Parameter entities makes the XMLReader safe</t>
+  </si>
+  <si>
+    <t>Proves that enabling External general and Parameter entities leaves the XMLReader unsafe</t>
+  </si>
+  <si>
+    <t>Proves that XPath is safe from injection when using an XPathVariableResolver to Parameterize the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is safe from injection when using a QName to Parameterize the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that VTD-XML can still be injected upon even when Parameterizing the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to Prepare the XQuery expression that uses whiteListing makes it safe from injection</t>
+  </si>
+  <si>
+    <t>Proves that Xalan is vulnerable to injection when using string Placeholders on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that DOM4J is vulnerable to injection when using string Placeholders on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that XPath is vulnerable to injection when using string Placeholders on the XPathExpression</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is vulnerable to injection when using string Placeholders on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that VTD-XML is vulnerable to injection when using string Placeholders on the XPath expression</t>
+  </si>
+  <si>
+    <t>Proves that using the XQExpression class to execute an XQuery expression that uses string Placeholders makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that using the XQPreparedExpression class to execute an XQuery expression that uses string Placeholders makes it vulnerable to injection</t>
+  </si>
+  <si>
+    <t>Proves that Saxon is vulnerable to injection when using string Placeholders on the XQuery expression</t>
+  </si>
+  <si>
+    <t>DocumentBuilderUnsafeDefaultTestCase.java</t>
+  </si>
+  <si>
+    <t>DocumentBuilderSafeExpandTestCase.java</t>
+  </si>
+  <si>
+    <t>DocumentBuilderSafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>DocumentBuilderSafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>DocumentBuilderUnsafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>DocumentBuilderUnsafeValidationOffTestCase.java</t>
+  </si>
+  <si>
+    <t>DocumentBuilderUnsafeValidationOnTestCase.java</t>
+  </si>
+  <si>
+    <t>JAXBUnsafeFileTestCase.java</t>
+  </si>
+  <si>
+    <t>JAXBUnsafeInputFactoryTestCase.java</t>
+  </si>
+  <si>
+    <t>JAXBSafefileXMLInputFactoryTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderUnsafeDefaultTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderSafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderUnsafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderUnsafeExternalOffTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderUnsafeExternalonTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderSafeExpandTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXBuilderUnsafeExpandTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXUnsafeDefaultTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXSafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>SAXUnsafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>SAXSafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXUnsafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXUnsafeValidationOffTestCase.java</t>
+  </si>
+  <si>
+    <t>SAXUnsafeValidationOnTestCase.java</t>
+  </si>
+  <si>
+    <t>SchemaUnsafeTestCase.java</t>
+  </si>
+  <si>
+    <t>SchemaSafeAccessTestCase.java</t>
+  </si>
+  <si>
+    <t>SchemaSafeAccessValidatorTestCase.java</t>
+  </si>
+  <si>
+    <t>TransformerUnsafeDefaultTestCase.java</t>
+  </si>
+  <si>
+    <t>TransformerSafeDTDTestCase.java</t>
+  </si>
+  <si>
+    <t>TransformerSafeAccessTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLDecoderTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLInputUnsafeDefaultTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLInputSafeAccessTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLInputSafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLInputUnsafeValidationOffTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLInputUnsafeValidationOnTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLInputSafeDTDTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLReaderUnsafeDefaultTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLReaderSafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>XMLReaderUnsafeDOCTYPETestCase.java</t>
+  </si>
+  <si>
+    <t>XMLReaderSafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>XMLReaderUnsafeExternalTestCase.java</t>
+  </si>
+  <si>
+    <t>XOMSafeTestCase.java</t>
+  </si>
+  <si>
+    <t>XOMUnsafeInputStreamTestCase.java</t>
+  </si>
+  <si>
+    <t>XOMUnsafeXMLReaderTestCase.java</t>
+  </si>
+  <si>
+    <t>XalanUnsafeConcatTestCase.java</t>
+  </si>
+  <si>
+    <t>XalanUnsafePlaceholderTestCase.java</t>
+  </si>
+  <si>
+    <t>XalanSafeListTestCase.java</t>
+  </si>
+  <si>
+    <t>XalanSafeEscapeTestCase.java</t>
+  </si>
+  <si>
+    <t>DOM4JUnsafeConcatTestCase.java</t>
+  </si>
+  <si>
+    <t>DOM4JUnsafePlaceholderTestCase.java</t>
+  </si>
+  <si>
+    <t>DOM4JSafeListTestCase.java</t>
+  </si>
+  <si>
+    <t>DOM4JSafeEscapeTestCase.java</t>
+  </si>
+  <si>
+    <t>XPathUnsafeConcatTestCase.java</t>
+  </si>
+  <si>
+    <t>XPathUnsafePlaceholderTestCase.java</t>
+  </si>
+  <si>
+    <t>XPathSafeParamTestCase.java</t>
+  </si>
+  <si>
+    <t>XPathSafeListTestCase.java</t>
+  </si>
+  <si>
+    <t>XPathSafeEscapeTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonUnsafeConcatTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonUnsafePlaceholderTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonSafeParamTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonSafeListTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonSafeEscapeTestCase.java</t>
+  </si>
+  <si>
+    <t>VTDUnsafeConcatTestCase.java</t>
+  </si>
+  <si>
+    <t>VTDUnsafePlaceholderTestCase.java</t>
+  </si>
+  <si>
+    <t>VTDUnsafeParamTestCase.java</t>
+  </si>
+  <si>
+    <t>VTDSafeListTestCase.java</t>
+  </si>
+  <si>
+    <t>VTDSafeEscapeTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonUnsafeConcatTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonUnsafePlaceholderTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonSafeListTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonSafeEscapeTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonUnsafeConcatPrepTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonUnsafePlaceholderPrepTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonSafeListPrepTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonSafeEscapePrepTestCase.java</t>
+  </si>
+  <si>
+    <r>
+      <t>org.DOM4J (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DOM4J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>javax.xml.XPath (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java XPath API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>net.sf.Saxon.s9api (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saxonica Saxon9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>XQJ with com.Saxonica.XQJ.SaxonXQDataSource (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saxonica Saxon9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>SaxonUnsafeConcatXQueryTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonUnsafePlaceholderXQueryTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonSafeListXQueryTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonSafeEscapeXQueryTestCase.java</t>
+  </si>
+  <si>
+    <t>SaxonSafeBindXQueryTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonSafeBindPrepTestCase.java</t>
+  </si>
+  <si>
+    <t>XQJSaxonSafeBindTestCase.java</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1502,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1397,12 +1513,6 @@
     <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1653,6 +1763,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1778,11 +1894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123277824"/>
-        <c:axId val="123278400"/>
+        <c:axId val="76893568"/>
+        <c:axId val="76894144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123277824"/>
+        <c:axId val="76893568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1812,20 +1928,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123278400"/>
+        <c:crossAx val="76894144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123278400"/>
+        <c:axId val="76894144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1850,14 +1965,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123277824"/>
+        <c:crossAx val="76893568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1990,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123280128"/>
-        <c:axId val="123280704"/>
+        <c:axId val="76895872"/>
+        <c:axId val="76896448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123280128"/>
+        <c:axId val="76895872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2031,13 +2145,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123280704"/>
+        <c:crossAx val="76896448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123280704"/>
+        <c:axId val="76896448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2069,7 +2183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123280128"/>
+        <c:crossAx val="76895872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2125,7 +2239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2251,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,11 +2316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172295872"/>
-        <c:axId val="172296448"/>
+        <c:axId val="156254784"/>
+        <c:axId val="156255360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172295872"/>
+        <c:axId val="156254784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2243,13 +2357,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172296448"/>
+        <c:crossAx val="156255360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172296448"/>
+        <c:axId val="156255360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2281,7 +2395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172295872"/>
+        <c:crossAx val="156254784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2414,11 +2528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172298752"/>
-        <c:axId val="172299328"/>
+        <c:axId val="156257664"/>
+        <c:axId val="156258240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172298752"/>
+        <c:axId val="156257664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2448,20 +2562,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172299328"/>
+        <c:crossAx val="156258240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172299328"/>
+        <c:axId val="156258240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2486,14 +2599,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172298752"/>
+        <c:crossAx val="156257664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2626,11 +2738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172301632"/>
-        <c:axId val="172351488"/>
+        <c:axId val="156260544"/>
+        <c:axId val="156261120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172301632"/>
+        <c:axId val="156260544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2660,20 +2772,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172351488"/>
+        <c:crossAx val="156261120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172351488"/>
+        <c:axId val="156261120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2698,14 +2809,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172301632"/>
+        <c:crossAx val="156260544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2838,11 +2948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172353792"/>
-        <c:axId val="172354368"/>
+        <c:axId val="156640384"/>
+        <c:axId val="156640960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172353792"/>
+        <c:axId val="156640384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2872,20 +2982,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172354368"/>
+        <c:crossAx val="156640960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172354368"/>
+        <c:axId val="156640960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2910,14 +3019,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172353792"/>
+        <c:crossAx val="156640384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3050,11 +3158,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172356672"/>
-        <c:axId val="172357248"/>
+        <c:axId val="156643264"/>
+        <c:axId val="156643840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172356672"/>
+        <c:axId val="156643264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3084,20 +3192,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172357248"/>
+        <c:crossAx val="156643840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172357248"/>
+        <c:axId val="156643840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3122,14 +3229,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172356672"/>
+        <c:crossAx val="156643264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3400,15 +3506,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:J84">
-  <autoFilter ref="A1:J84"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:I84">
+  <autoFilter ref="A1:I84"/>
+  <tableColumns count="9">
     <tableColumn id="8" name="Tests"/>
     <tableColumn id="3" name="XML Parser" totalsRowLabel="Total"/>
-    <tableColumn id="11" name="Test Title" dataDxfId="19"/>
+    <tableColumn id="11" name="Test Title" dataDxfId="47"/>
     <tableColumn id="9" name="Vulnerability"/>
     <tableColumn id="1" name="Filename"/>
-    <tableColumn id="6" name="Case String"/>
     <tableColumn id="5" name="Testing if…"/>
     <tableColumn id="4" name="Fortify Detection"/>
     <tableColumn id="7" name="Contrast Detection"/>
@@ -3427,10 +3532,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="47"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="46"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="45"/>
-    <tableColumn id="9" name="Score" dataDxfId="44"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="46"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="45"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="44"/>
+    <tableColumn id="9" name="Score" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3445,10 +3550,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="43"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="42"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="41"/>
-    <tableColumn id="9" name="Score" dataDxfId="40"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="42"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="41"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="40"/>
+    <tableColumn id="9" name="Score" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3463,10 +3568,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="39"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="38"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="37"/>
-    <tableColumn id="9" name="Score" dataDxfId="36"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="38"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="37"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="36"/>
+    <tableColumn id="9" name="Score" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3481,10 +3586,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="35"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="34"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="33"/>
-    <tableColumn id="9" name="Score" dataDxfId="32"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="34"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="33"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="32"/>
+    <tableColumn id="9" name="Score" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3499,10 +3604,10 @@
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="31"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="30"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="29"/>
-    <tableColumn id="9" name="Score" dataDxfId="28"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="30"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="29"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="28"/>
+    <tableColumn id="9" name="Score" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3514,15 +3619,15 @@
   <tableColumns count="9">
     <tableColumn id="3" name="XQuery Parser" totalsRowLabel="Total"/>
     <tableColumn id="1" name="True Positive"/>
-    <tableColumn id="5" name="False Negative" dataDxfId="18">
+    <tableColumn id="5" name="False Negative" dataDxfId="26">
       <calculatedColumnFormula>SUM(C1:C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="True Negative"/>
     <tableColumn id="6" name="False Positive"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="27"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="26"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="25"/>
-    <tableColumn id="9" name="Score" dataDxfId="24"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="25"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="24"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="23"/>
+    <tableColumn id="9" name="Score" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3533,18 +3638,18 @@
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
     <tableColumn id="3" name="XQuery Parser" totalsRowLabel="Total"/>
-    <tableColumn id="1" name="True Positive" dataDxfId="1">
+    <tableColumn id="1" name="True Positive" dataDxfId="21">
       <calculatedColumnFormula>SUM(B1:B2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="False Negative"/>
     <tableColumn id="7" name="True Negative"/>
-    <tableColumn id="6" name="False Positive" dataDxfId="0">
+    <tableColumn id="6" name="False Positive" dataDxfId="20">
       <calculatedColumnFormula>SUM(E1:E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="4" name="True Posistive Rate" dataDxfId="22"/>
-    <tableColumn id="8" name="False Positive Rate" dataDxfId="21"/>
-    <tableColumn id="9" name="Score" dataDxfId="20"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="count" dataDxfId="19"/>
+    <tableColumn id="4" name="True Posistive Rate" dataDxfId="18"/>
+    <tableColumn id="8" name="False Positive Rate" dataDxfId="17"/>
+    <tableColumn id="9" name="Score" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3855,12 +3960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,47 +3972,42 @@
     <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="141.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="141.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>104</v>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3917,63 +4015,57 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3981,31 +4073,28 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4013,33 +4102,30 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4047,35 +4133,32 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="L6"/>
       <c r="M6"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4083,33 +4166,30 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
         <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
         <v>54</v>
       </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4117,31 +4197,28 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4149,31 +4226,28 @@
         <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4181,31 +4255,28 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4213,255 +4284,231 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
         <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
         <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
         <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
         <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4469,31 +4516,28 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4501,31 +4545,28 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
         <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4533,31 +4574,28 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
         <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4565,31 +4603,28 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4597,31 +4632,28 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H23" t="s">
         <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4629,31 +4661,28 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
         <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4661,31 +4690,28 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
         <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4693,31 +4719,28 @@
         <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" t="s">
-        <v>122</v>
+        <v>260</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4725,31 +4748,28 @@
         <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>123</v>
+        <v>261</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4757,31 +4777,28 @@
         <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" t="s">
-        <v>124</v>
+        <v>262</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4789,31 +4806,28 @@
         <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4821,31 +4835,28 @@
         <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4853,63 +4864,57 @@
         <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H32" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4917,31 +4922,28 @@
         <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4949,31 +4951,28 @@
         <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4981,31 +4980,28 @@
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
         <v>96</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5013,31 +5009,28 @@
         <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5045,31 +5038,28 @@
         <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5077,31 +5067,28 @@
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H38" t="s">
         <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5109,31 +5096,28 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5141,31 +5125,28 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
         <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5173,31 +5154,28 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5205,31 +5183,28 @@
         <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H42" t="s">
         <v>96</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5237,1386 +5212,1260 @@
         <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>280</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
-      </c>
-      <c r="J45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
         <v>96</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
-      </c>
-      <c r="J47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
         <v>96</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
-      </c>
-      <c r="J48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
-      </c>
-      <c r="J49" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
-      </c>
-      <c r="J50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H51" t="s">
         <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
-      </c>
-      <c r="J51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H52" t="s">
         <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
         <v>96</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
-      </c>
-      <c r="J53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
         <v>96</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
-      </c>
-      <c r="J54" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
         <v>96</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
-      </c>
-      <c r="J55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
         <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H57" t="s">
         <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
-      </c>
-      <c r="J57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s">
         <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H61" t="s">
         <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-      <c r="J61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H62" t="s">
         <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
-      </c>
-      <c r="J62" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="F63" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-      <c r="J63" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-      <c r="J64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="F65" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s">
         <v>95</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-      <c r="J65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
         <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-      <c r="J66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="F67" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s">
         <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-      <c r="J67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H68" t="s">
         <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-      <c r="J68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
         <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-      <c r="J69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="F70" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-      <c r="J70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
-      </c>
-      <c r="J71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
         <v>96</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-      <c r="J72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="F73" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-      <c r="J73" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
-      </c>
-      <c r="J74" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
-      </c>
-      <c r="J76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>321</v>
       </c>
       <c r="F77" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H77" t="s">
         <v>96</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
-      </c>
-      <c r="J77" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I78" t="s">
-        <v>96</v>
-      </c>
-      <c r="J78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I79" t="s">
-        <v>96</v>
-      </c>
-      <c r="J79" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>95</v>
-      </c>
-      <c r="J80" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I81" t="s">
-        <v>95</v>
-      </c>
-      <c r="J81" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="F82" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H82" t="s">
         <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>96</v>
-      </c>
-      <c r="J82" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="F83" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I83" t="s">
-        <v>96</v>
-      </c>
-      <c r="J83" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>307</v>
+        <v>186</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="F84" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I84" t="s">
-        <v>96</v>
-      </c>
-      <c r="J84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D85:D87 D92:D1048576 G1:G79">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Unsafe (Safe">
+  <conditionalFormatting sqref="D85:D87 D92:D1048576 F1:F79">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Unsafe (Safe">
       <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Unsafe">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Unsafe">
       <formula>NOT(ISERROR(SEARCH("Unsafe",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Safe">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="Safe">
       <formula>NOT(ISERROR(SEARCH("Safe",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:F87 E92:F1048576 H84 H1:I83 I83:I84">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="E85:E87 E92:E1048576 G84 H83:H84 G1:H83">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:F87 E92:F1048576 H84 H1:I83 I83:I84">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Fail (Pass">
+  <conditionalFormatting sqref="E85:E87 E92:E1048576 G84 H83:H84 G1:H83">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fail (Pass">
       <formula>NOT(ISERROR(SEARCH("Fail (Pass",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G84">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Unsafe (Safe">
-      <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",G80)))</formula>
+  <conditionalFormatting sqref="F80:F84">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Unsafe (Safe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",F80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Unsafe">
-      <formula>NOT(ISERROR(SEARCH("Unsafe",G80)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Unsafe">
+      <formula>NOT(ISERROR(SEARCH("Unsafe",F80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Safe">
-      <formula>NOT(ISERROR(SEARCH("Safe",G80)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Safe">
+      <formula>NOT(ISERROR(SEARCH("Safe",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Pass (Fail">
-      <formula>NOT(ISERROR(SEARCH("Pass (Fail",I1)))</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Pass (Fail">
+      <formula>NOT(ISERROR(SEARCH("Pass (Fail",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6654,17 +6503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -6759,7 +6608,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -6867,7 +6716,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6954,7 +6803,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7018,17 +6867,17 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7118,7 +6967,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -7232,7 +7081,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7319,7 +7168,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -7419,17 +7268,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -7464,11 +7313,15 @@
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3" s="3"/>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F10" si="0">SUM(B3:E3)</f>
@@ -7476,27 +7329,25 @@
       </c>
       <c r="G3" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="E4">
         <v>1</v>
       </c>
@@ -7506,20 +7357,20 @@
       </c>
       <c r="G4" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -7548,11 +7399,14 @@
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -7560,15 +7414,15 @@
       </c>
       <c r="G6" s="5">
         <f>IF(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]=0,"N/A",Table1364[[#This Row],[True Positive]]/(Table1364[[#This Row],[True Positive]]+Table1364[[#This Row],[False Negative]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7627,12 +7481,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="16">
+        <v>103</v>
+      </c>
+      <c r="C9" s="15">
         <v>1E-100</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
@@ -7645,11 +7499,11 @@
       </c>
       <c r="H9" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7708,12 +7562,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
@@ -7726,11 +7580,11 @@
       </c>
       <c r="H12" s="5">
         <f>Table1364[[#This Row],[False Positive]]/(Table1364[[#This Row],[False Positive]]+Table1364[[#This Row],[True Negative]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <f>(Table1364[[#This Row],[True Posistive Rate]]+(1 - Table1364[[#This Row],[False Positive Rate]])) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7739,19 +7593,19 @@
       </c>
       <c r="B13" s="7">
         <f>SUM(B3:B12)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <f>SUM(C3:C12)</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
         <f>SUM(D3:D12)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7">
         <f>SUM(E3:E12)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" s="7">
         <f>SUM(F3:F12)</f>
@@ -7759,15 +7613,15 @@
       </c>
       <c r="G13" s="7">
         <f>AVERAGE(G3:G12)</f>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="7">
         <f>AVERAGE(H3:H12)</f>
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="7">
         <f>ROUND(AVERAGE(I3:I12)*100, 0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7806,21 +7660,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -7849,7 +7703,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7877,7 +7731,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -7904,7 +7758,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -7935,7 +7789,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7966,7 +7820,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -8047,7 +7901,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8064,21 +7918,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -8107,7 +7961,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8135,7 +7989,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -8162,7 +8016,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -8190,7 +8044,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -8218,7 +8072,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -8317,21 +8171,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -8360,7 +8214,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -8391,7 +8245,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8428,7 +8282,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C3:C5" si="1">SUM(C3:C4)</f>
+        <f t="shared" ref="C5" si="1">SUM(C3:C4)</f>
         <v>0</v>
       </c>
       <c r="D5" s="7">
@@ -8475,7 +8329,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8492,21 +8346,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -8535,7 +8389,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B5" si="0">SUM(B1:B2)</f>
@@ -8570,7 +8424,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -8806,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -8971,16 +8825,16 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9713,26 +9567,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Unsafe (Safe">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Unsafe (Safe">
       <formula>NOT(ISERROR(SEARCH("Unsafe (Safe",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Unsafe">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Unsafe">
       <formula>NOT(ISERROR(SEARCH("Unsafe",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Safe">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Safe">
       <formula>NOT(ISERROR(SEARCH("Safe",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Fail (Pass">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail (Pass">
       <formula>NOT(ISERROR(SEARCH("Fail (Pass",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
